--- a/biology/Zoologie/Gigantorhynchus_echinodiscus/Gigantorhynchus_echinodiscus.xlsx
+++ b/biology/Zoologie/Gigantorhynchus_echinodiscus/Gigantorhynchus_echinodiscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigantorhynchus echinodiscus est une espèce d'acanthocéphales de la famille des Gigantorhynchidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud[1].
-Adulte, c'est un parasite digestif de fourmiliers[1]. Il a été observé sur Cyclopes didactylus, Tamandua tetradactyla et Myrmecophaga tridactyla.
-Les hôtes intermédiaires sont très vraisemblablement des termites[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud.
+Adulte, c'est un parasite digestif de fourmiliers. Il a été observé sur Cyclopes didactylus, Tamandua tetradactyla et Myrmecophaga tridactyla.
+Les hôtes intermédiaires sont très vraisemblablement des termites.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Echinorhynchus echinodiscus par Karl Moritz Diesing en 1851. C'est l'espèce type du genre Gigantorhynchus[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Echinorhynchus echinodiscus par Karl Moritz Diesing en 1851. C'est l'espèce type du genre Gigantorhynchus.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diesing, 1851 : Systema helminthum. vol. 2, p. 1-588 (texte intégral).</t>
         </is>
